--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1153"/>
+  <dimension ref="A1:E1161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20015,6 +20015,142 @@
         <v>105.4043</v>
       </c>
     </row>
+    <row r="1154" spans="1:5">
+      <c r="A1154" s="1">
+        <v>1152</v>
+      </c>
+      <c r="B1154" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1154">
+        <v>1</v>
+      </c>
+      <c r="E1154">
+        <v>92.84099999999999</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5">
+      <c r="A1155" s="1">
+        <v>1153</v>
+      </c>
+      <c r="B1155" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1155">
+        <v>1</v>
+      </c>
+      <c r="E1155">
+        <v>101.9268</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5">
+      <c r="A1156" s="1">
+        <v>1154</v>
+      </c>
+      <c r="B1156" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1156">
+        <v>1</v>
+      </c>
+      <c r="E1156">
+        <v>61.0987</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5">
+      <c r="A1157" s="1">
+        <v>1155</v>
+      </c>
+      <c r="B1157" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1157">
+        <v>1</v>
+      </c>
+      <c r="E1157">
+        <v>12.9223</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5">
+      <c r="A1158" s="1">
+        <v>1156</v>
+      </c>
+      <c r="B1158" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1158">
+        <v>1</v>
+      </c>
+      <c r="E1158">
+        <v>118.4837</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5">
+      <c r="A1159" s="1">
+        <v>1157</v>
+      </c>
+      <c r="B1159" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1159">
+        <v>100</v>
+      </c>
+      <c r="E1159">
+        <v>20.8613</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5">
+      <c r="A1160" s="1">
+        <v>1158</v>
+      </c>
+      <c r="B1160" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1160">
+        <v>100</v>
+      </c>
+      <c r="E1160">
+        <v>64.85120000000001</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5">
+      <c r="A1161" s="1">
+        <v>1159</v>
+      </c>
+      <c r="B1161" s="2">
+        <v>45141</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1161">
+        <v>1</v>
+      </c>
+      <c r="E1161">
+        <v>105.862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1161"/>
+  <dimension ref="A1:E1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20151,6 +20151,142 @@
         <v>105.862</v>
       </c>
     </row>
+    <row r="1162" spans="1:5">
+      <c r="A1162" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B1162" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1162">
+        <v>1</v>
+      </c>
+      <c r="E1162">
+        <v>93.7792</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5">
+      <c r="A1163" s="1">
+        <v>1161</v>
+      </c>
+      <c r="B1163" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1163">
+        <v>1</v>
+      </c>
+      <c r="E1163">
+        <v>102.531</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5">
+      <c r="A1164" s="1">
+        <v>1162</v>
+      </c>
+      <c r="B1164" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1164">
+        <v>1</v>
+      </c>
+      <c r="E1164">
+        <v>61.3128</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5">
+      <c r="A1165" s="1">
+        <v>1163</v>
+      </c>
+      <c r="B1165" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1165">
+        <v>1</v>
+      </c>
+      <c r="E1165">
+        <v>13.0395</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5">
+      <c r="A1166" s="1">
+        <v>1164</v>
+      </c>
+      <c r="B1166" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1166">
+        <v>1</v>
+      </c>
+      <c r="E1166">
+        <v>118.9964</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="1">
+        <v>1165</v>
+      </c>
+      <c r="B1167" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1167">
+        <v>100</v>
+      </c>
+      <c r="E1167">
+        <v>21.1376</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5">
+      <c r="A1168" s="1">
+        <v>1166</v>
+      </c>
+      <c r="B1168" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1168">
+        <v>100</v>
+      </c>
+      <c r="E1168">
+        <v>65.46080000000001</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5">
+      <c r="A1169" s="1">
+        <v>1167</v>
+      </c>
+      <c r="B1169" s="2">
+        <v>45142</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1169">
+        <v>1</v>
+      </c>
+      <c r="E1169">
+        <v>106.8952</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1169"/>
+  <dimension ref="A1:E1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20287,6 +20287,142 @@
         <v>106.8952</v>
       </c>
     </row>
+    <row r="1170" spans="1:5">
+      <c r="A1170" s="1">
+        <v>1168</v>
+      </c>
+      <c r="B1170" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1170">
+        <v>1</v>
+      </c>
+      <c r="E1170">
+        <v>94.80759999999999</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5">
+      <c r="A1171" s="1">
+        <v>1169</v>
+      </c>
+      <c r="B1171" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1171">
+        <v>1</v>
+      </c>
+      <c r="E1171">
+        <v>103.8379</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5">
+      <c r="A1172" s="1">
+        <v>1170</v>
+      </c>
+      <c r="B1172" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1172">
+        <v>1</v>
+      </c>
+      <c r="E1172">
+        <v>62.317</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5">
+      <c r="A1173" s="1">
+        <v>1171</v>
+      </c>
+      <c r="B1173" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1173">
+        <v>1</v>
+      </c>
+      <c r="E1173">
+        <v>13.1755</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5">
+      <c r="A1174" s="1">
+        <v>1172</v>
+      </c>
+      <c r="B1174" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1174">
+        <v>1</v>
+      </c>
+      <c r="E1174">
+        <v>120.3772</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5">
+      <c r="A1175" s="1">
+        <v>1173</v>
+      </c>
+      <c r="B1175" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1175">
+        <v>100</v>
+      </c>
+      <c r="E1175">
+        <v>21.3046</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5">
+      <c r="A1176" s="1">
+        <v>1174</v>
+      </c>
+      <c r="B1176" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1176">
+        <v>100</v>
+      </c>
+      <c r="E1176">
+        <v>66.50830000000001</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5">
+      <c r="A1177" s="1">
+        <v>1175</v>
+      </c>
+      <c r="B1177" s="2">
+        <v>45143</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1177">
+        <v>1</v>
+      </c>
+      <c r="E1177">
+        <v>108.0428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1177"/>
+  <dimension ref="A1:E1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20423,6 +20423,142 @@
         <v>108.0428</v>
       </c>
     </row>
+    <row r="1178" spans="1:5">
+      <c r="A1178" s="1">
+        <v>1176</v>
+      </c>
+      <c r="B1178" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1178">
+        <v>1</v>
+      </c>
+      <c r="E1178">
+        <v>96.5668</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5">
+      <c r="A1179" s="1">
+        <v>1177</v>
+      </c>
+      <c r="B1179" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1179">
+        <v>1</v>
+      </c>
+      <c r="E1179">
+        <v>106.0543</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5">
+      <c r="A1180" s="1">
+        <v>1178</v>
+      </c>
+      <c r="B1180" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1180">
+        <v>1</v>
+      </c>
+      <c r="E1180">
+        <v>63.4734</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5">
+      <c r="A1181" s="1">
+        <v>1179</v>
+      </c>
+      <c r="B1181" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1181">
+        <v>1</v>
+      </c>
+      <c r="E1181">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5">
+      <c r="A1182" s="1">
+        <v>1180</v>
+      </c>
+      <c r="B1182" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1182">
+        <v>1</v>
+      </c>
+      <c r="E1182">
+        <v>123.1903</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5">
+      <c r="A1183" s="1">
+        <v>1181</v>
+      </c>
+      <c r="B1183" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1183">
+        <v>100</v>
+      </c>
+      <c r="E1183">
+        <v>21.6863</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5">
+      <c r="A1184" s="1">
+        <v>1182</v>
+      </c>
+      <c r="B1184" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1184">
+        <v>100</v>
+      </c>
+      <c r="E1184">
+        <v>68.1728</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5">
+      <c r="A1185" s="1">
+        <v>1183</v>
+      </c>
+      <c r="B1185" s="2">
+        <v>45146</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1185">
+        <v>1</v>
+      </c>
+      <c r="E1185">
+        <v>110.2738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1185"/>
+  <dimension ref="A1:E1193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20559,6 +20559,142 @@
         <v>110.2738</v>
       </c>
     </row>
+    <row r="1186" spans="1:5">
+      <c r="A1186" s="1">
+        <v>1184</v>
+      </c>
+      <c r="B1186" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1186">
+        <v>1</v>
+      </c>
+      <c r="E1186">
+        <v>96.07550000000001</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5">
+      <c r="A1187" s="1">
+        <v>1185</v>
+      </c>
+      <c r="B1187" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1187">
+        <v>1</v>
+      </c>
+      <c r="E1187">
+        <v>105.4352</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5">
+      <c r="A1188" s="1">
+        <v>1186</v>
+      </c>
+      <c r="B1188" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1188">
+        <v>1</v>
+      </c>
+      <c r="E1188">
+        <v>62.7469</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5">
+      <c r="A1189" s="1">
+        <v>1187</v>
+      </c>
+      <c r="B1189" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1189">
+        <v>1</v>
+      </c>
+      <c r="E1189">
+        <v>13.277</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5">
+      <c r="A1190" s="1">
+        <v>1188</v>
+      </c>
+      <c r="B1190" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1190">
+        <v>1</v>
+      </c>
+      <c r="E1190">
+        <v>122.7076</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5">
+      <c r="A1191" s="1">
+        <v>1189</v>
+      </c>
+      <c r="B1191" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1191">
+        <v>100</v>
+      </c>
+      <c r="E1191">
+        <v>21.5242</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5">
+      <c r="A1192" s="1">
+        <v>1190</v>
+      </c>
+      <c r="B1192" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1192">
+        <v>100</v>
+      </c>
+      <c r="E1192">
+        <v>67.1763</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5">
+      <c r="A1193" s="1">
+        <v>1191</v>
+      </c>
+      <c r="B1193" s="2">
+        <v>45147</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1193">
+        <v>1</v>
+      </c>
+      <c r="E1193">
+        <v>109.9639</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1193"/>
+  <dimension ref="A1:E1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20695,6 +20695,142 @@
         <v>109.9639</v>
       </c>
     </row>
+    <row r="1194" spans="1:5">
+      <c r="A1194" s="1">
+        <v>1192</v>
+      </c>
+      <c r="B1194" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1194">
+        <v>1</v>
+      </c>
+      <c r="E1194">
+        <v>97.3999</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5">
+      <c r="A1195" s="1">
+        <v>1193</v>
+      </c>
+      <c r="B1195" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1195">
+        <v>1</v>
+      </c>
+      <c r="E1195">
+        <v>106.8897</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5">
+      <c r="A1196" s="1">
+        <v>1194</v>
+      </c>
+      <c r="B1196" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1196">
+        <v>1</v>
+      </c>
+      <c r="E1196">
+        <v>63.8554</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5">
+      <c r="A1197" s="1">
+        <v>1195</v>
+      </c>
+      <c r="B1197" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1197">
+        <v>1</v>
+      </c>
+      <c r="E1197">
+        <v>13.4741</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5">
+      <c r="A1198" s="1">
+        <v>1196</v>
+      </c>
+      <c r="B1198" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1198">
+        <v>1</v>
+      </c>
+      <c r="E1198">
+        <v>123.9122</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5">
+      <c r="A1199" s="1">
+        <v>1197</v>
+      </c>
+      <c r="B1199" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1199">
+        <v>100</v>
+      </c>
+      <c r="E1199">
+        <v>21.8444</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5">
+      <c r="A1200" s="1">
+        <v>1198</v>
+      </c>
+      <c r="B1200" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1200">
+        <v>100</v>
+      </c>
+      <c r="E1200">
+        <v>67.955</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5">
+      <c r="A1201" s="1">
+        <v>1199</v>
+      </c>
+      <c r="B1201" s="2">
+        <v>45148</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1201">
+        <v>1</v>
+      </c>
+      <c r="E1201">
+        <v>111.3396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1201"/>
+  <dimension ref="A1:E1209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20831,6 +20831,142 @@
         <v>111.3396</v>
       </c>
     </row>
+    <row r="1202" spans="1:5">
+      <c r="A1202" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B1202" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1202">
+        <v>1</v>
+      </c>
+      <c r="E1202">
+        <v>97.2794</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5">
+      <c r="A1203" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B1203" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1203">
+        <v>1</v>
+      </c>
+      <c r="E1203">
+        <v>107.1563</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5">
+      <c r="A1204" s="1">
+        <v>1202</v>
+      </c>
+      <c r="B1204" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1204">
+        <v>1</v>
+      </c>
+      <c r="E1204">
+        <v>63.6694</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5">
+      <c r="A1205" s="1">
+        <v>1203</v>
+      </c>
+      <c r="B1205" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1205">
+        <v>1</v>
+      </c>
+      <c r="E1205">
+        <v>13.459</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5">
+      <c r="A1206" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B1206" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1206">
+        <v>1</v>
+      </c>
+      <c r="E1206">
+        <v>123.8561</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5">
+      <c r="A1207" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B1207" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1207">
+        <v>100</v>
+      </c>
+      <c r="E1207">
+        <v>21.7959</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5">
+      <c r="A1208" s="1">
+        <v>1206</v>
+      </c>
+      <c r="B1208" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1208">
+        <v>100</v>
+      </c>
+      <c r="E1208">
+        <v>67.63500000000001</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5">
+      <c r="A1209" s="1">
+        <v>1207</v>
+      </c>
+      <c r="B1209" s="2">
+        <v>45149</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1209">
+        <v>1</v>
+      </c>
+      <c r="E1209">
+        <v>111.4056</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1209"/>
+  <dimension ref="A1:E1217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20967,6 +20967,142 @@
         <v>111.4056</v>
       </c>
     </row>
+    <row r="1210" spans="1:5">
+      <c r="A1210" s="1">
+        <v>1208</v>
+      </c>
+      <c r="B1210" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1210">
+        <v>1</v>
+      </c>
+      <c r="E1210">
+        <v>98.20659999999999</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5">
+      <c r="A1211" s="1">
+        <v>1209</v>
+      </c>
+      <c r="B1211" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1211">
+        <v>1</v>
+      </c>
+      <c r="E1211">
+        <v>107.9723</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5">
+      <c r="A1212" s="1">
+        <v>1210</v>
+      </c>
+      <c r="B1212" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1212">
+        <v>1</v>
+      </c>
+      <c r="E1212">
+        <v>64.05029999999999</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5">
+      <c r="A1213" s="1">
+        <v>1211</v>
+      </c>
+      <c r="B1213" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1213">
+        <v>1</v>
+      </c>
+      <c r="E1213">
+        <v>13.5351</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5">
+      <c r="A1214" s="1">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1214">
+        <v>1</v>
+      </c>
+      <c r="E1214">
+        <v>125.0661</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5">
+      <c r="A1215" s="1">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1215">
+        <v>100</v>
+      </c>
+      <c r="E1215">
+        <v>22.0674</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5">
+      <c r="A1216" s="1">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1216">
+        <v>100</v>
+      </c>
+      <c r="E1216">
+        <v>68.2796</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5">
+      <c r="A1217" s="1">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>45150</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1217">
+        <v>1</v>
+      </c>
+      <c r="E1217">
+        <v>112.0313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1217"/>
+  <dimension ref="A1:E1225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21103,6 +21103,142 @@
         <v>112.0313</v>
       </c>
     </row>
+    <row r="1218" spans="1:5">
+      <c r="A1218" s="1">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1218">
+        <v>1</v>
+      </c>
+      <c r="E1218">
+        <v>101.0399</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5">
+      <c r="A1219" s="1">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1219">
+        <v>1</v>
+      </c>
+      <c r="E1219">
+        <v>110.6847</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5">
+      <c r="A1220" s="1">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1220">
+        <v>1</v>
+      </c>
+      <c r="E1220">
+        <v>65.4233</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5">
+      <c r="A1221" s="1">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1221">
+        <v>1</v>
+      </c>
+      <c r="E1221">
+        <v>13.8741</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5">
+      <c r="A1222" s="1">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1222">
+        <v>1</v>
+      </c>
+      <c r="E1222">
+        <v>128.452</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5">
+      <c r="A1223" s="1">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1223">
+        <v>100</v>
+      </c>
+      <c r="E1223">
+        <v>22.6643</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5">
+      <c r="A1224" s="1">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1224">
+        <v>100</v>
+      </c>
+      <c r="E1224">
+        <v>69.6443</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5">
+      <c r="A1225" s="1">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>45153</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1225">
+        <v>1</v>
+      </c>
+      <c r="E1225">
+        <v>115.224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1225"/>
+  <dimension ref="A1:E1233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21239,6 +21239,142 @@
         <v>115.224</v>
       </c>
     </row>
+    <row r="1226" spans="1:5">
+      <c r="A1226" s="1">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1226">
+        <v>1</v>
+      </c>
+      <c r="E1226">
+        <v>97.4217</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5">
+      <c r="A1227" s="1">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1227">
+        <v>1</v>
+      </c>
+      <c r="E1227">
+        <v>106.5736</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5">
+      <c r="A1228" s="1">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1228">
+        <v>1</v>
+      </c>
+      <c r="E1228">
+        <v>63.441</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5">
+      <c r="A1229" s="1">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1229">
+        <v>1</v>
+      </c>
+      <c r="E1229">
+        <v>13.3227</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5">
+      <c r="A1230" s="1">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1230">
+        <v>1</v>
+      </c>
+      <c r="E1230">
+        <v>123.3456</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5">
+      <c r="A1231" s="1">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1231">
+        <v>100</v>
+      </c>
+      <c r="E1231">
+        <v>21.7193</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5">
+      <c r="A1232" s="1">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1232">
+        <v>100</v>
+      </c>
+      <c r="E1232">
+        <v>66.93810000000001</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5">
+      <c r="A1233" s="1">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>45154</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1233">
+        <v>1</v>
+      </c>
+      <c r="E1233">
+        <v>111.2247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1233"/>
+  <dimension ref="A1:E1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21375,6 +21375,142 @@
         <v>111.2247</v>
       </c>
     </row>
+    <row r="1234" spans="1:5">
+      <c r="A1234" s="1">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1234">
+        <v>1</v>
+      </c>
+      <c r="E1234">
+        <v>96.7045</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5">
+      <c r="A1235" s="1">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1235">
+        <v>1</v>
+      </c>
+      <c r="E1235">
+        <v>105.6591</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5">
+      <c r="A1236" s="1">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1236">
+        <v>1</v>
+      </c>
+      <c r="E1236">
+        <v>62.3841</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5">
+      <c r="A1237" s="1">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1237">
+        <v>1</v>
+      </c>
+      <c r="E1237">
+        <v>13.2065</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5">
+      <c r="A1238" s="1">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1238">
+        <v>1</v>
+      </c>
+      <c r="E1238">
+        <v>123.2499</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5">
+      <c r="A1239" s="1">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1239">
+        <v>100</v>
+      </c>
+      <c r="E1239">
+        <v>21.5296</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5">
+      <c r="A1240" s="1">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1240">
+        <v>100</v>
+      </c>
+      <c r="E1240">
+        <v>66.386</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5">
+      <c r="A1241" s="1">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>45155</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1241">
+        <v>1</v>
+      </c>
+      <c r="E1241">
+        <v>110.1418</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1241"/>
+  <dimension ref="A1:E1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21511,6 +21511,142 @@
         <v>110.1418</v>
       </c>
     </row>
+    <row r="1242" spans="1:5">
+      <c r="A1242" s="1">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1242">
+        <v>1</v>
+      </c>
+      <c r="E1242">
+        <v>93.746</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5">
+      <c r="A1243" s="1">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1243">
+        <v>1</v>
+      </c>
+      <c r="E1243">
+        <v>102.181</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5">
+      <c r="A1244" s="1">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1244">
+        <v>1</v>
+      </c>
+      <c r="E1244">
+        <v>59.8568</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5">
+      <c r="A1245" s="1">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1245">
+        <v>1</v>
+      </c>
+      <c r="E1245">
+        <v>12.7875</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5">
+      <c r="A1246" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1246">
+        <v>1</v>
+      </c>
+      <c r="E1246">
+        <v>119.5543</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5">
+      <c r="A1247" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1247">
+        <v>100</v>
+      </c>
+      <c r="E1247">
+        <v>20.6353</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5">
+      <c r="A1248" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1248">
+        <v>100</v>
+      </c>
+      <c r="E1248">
+        <v>64.0342</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5">
+      <c r="A1249" s="1">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>45156</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1249">
+        <v>1</v>
+      </c>
+      <c r="E1249">
+        <v>106.5901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1249"/>
+  <dimension ref="A1:E1257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21647,6 +21647,142 @@
         <v>106.5901</v>
       </c>
     </row>
+    <row r="1250" spans="1:5">
+      <c r="A1250" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1250">
+        <v>1</v>
+      </c>
+      <c r="E1250">
+        <v>93.40470000000001</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5">
+      <c r="A1251" s="1">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1251">
+        <v>1</v>
+      </c>
+      <c r="E1251">
+        <v>101.4802</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5">
+      <c r="A1252" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1252">
+        <v>1</v>
+      </c>
+      <c r="E1252">
+        <v>59.8444</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5">
+      <c r="A1253" s="1">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1253">
+        <v>1</v>
+      </c>
+      <c r="E1253">
+        <v>12.7545</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5">
+      <c r="A1254" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1254">
+        <v>1</v>
+      </c>
+      <c r="E1254">
+        <v>119.1564</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5">
+      <c r="A1255" s="1">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1255">
+        <v>100</v>
+      </c>
+      <c r="E1255">
+        <v>20.1655</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5">
+      <c r="A1256" s="1">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1256">
+        <v>100</v>
+      </c>
+      <c r="E1256">
+        <v>64.1516</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5">
+      <c r="A1257" s="1">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>45157</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1257">
+        <v>1</v>
+      </c>
+      <c r="E1257">
+        <v>106.1055</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1257"/>
+  <dimension ref="A1:E1265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21783,6 +21783,142 @@
         <v>106.1055</v>
       </c>
     </row>
+    <row r="1258" spans="1:5">
+      <c r="A1258" s="1">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1258">
+        <v>1</v>
+      </c>
+      <c r="E1258">
+        <v>94.14239999999999</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5">
+      <c r="A1259" s="1">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1259">
+        <v>1</v>
+      </c>
+      <c r="E1259">
+        <v>102.5719</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5">
+      <c r="A1260" s="1">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1260">
+        <v>1</v>
+      </c>
+      <c r="E1260">
+        <v>60.2511</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5">
+      <c r="A1261" s="1">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1261">
+        <v>1</v>
+      </c>
+      <c r="E1261">
+        <v>12.862</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5">
+      <c r="A1262" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1262">
+        <v>1</v>
+      </c>
+      <c r="E1262">
+        <v>119.7115</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1263">
+        <v>100</v>
+      </c>
+      <c r="E1263">
+        <v>20.3899</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5">
+      <c r="A1264" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1264">
+        <v>100</v>
+      </c>
+      <c r="E1264">
+        <v>64.8051</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5">
+      <c r="A1265" s="1">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="2">
+        <v>45160</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1265">
+        <v>1</v>
+      </c>
+      <c r="E1265">
+        <v>106.9314</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -411,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1265"/>
+  <dimension ref="A1:E1273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21919,6 +21919,142 @@
         <v>106.9314</v>
       </c>
     </row>
+    <row r="1266" spans="1:5">
+      <c r="A1266" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1266">
+        <v>1</v>
+      </c>
+      <c r="E1266">
+        <v>94.1185</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5">
+      <c r="A1267" s="1">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1267">
+        <v>1</v>
+      </c>
+      <c r="E1267">
+        <v>102.753</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5">
+      <c r="A1268" s="1">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1268">
+        <v>1</v>
+      </c>
+      <c r="E1268">
+        <v>60.3958</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5">
+      <c r="A1269" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1269">
+        <v>1</v>
+      </c>
+      <c r="E1269">
+        <v>12.8734</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" s="1">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1270">
+        <v>1</v>
+      </c>
+      <c r="E1270">
+        <v>119.7846</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" s="1">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1271">
+        <v>100</v>
+      </c>
+      <c r="E1271">
+        <v>20.807</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" s="1">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1272">
+        <v>100</v>
+      </c>
+      <c r="E1272">
+        <v>64.3545</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" s="1">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1273">
+        <v>1</v>
+      </c>
+      <c r="E1273">
+        <v>107.2331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="curr" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="curr" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1281"/>
+  <dimension ref="A1:E1289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24779,6 +24779,158 @@
         <v>107.2718</v>
       </c>
     </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1282" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1282" t="n">
+        <v>94.4007</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1283" t="n">
+        <v>102.4719</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1284" t="n">
+        <v>61.1622</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1285" t="n">
+        <v>12.9407</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1286" t="n">
+        <v>119.7284</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1287" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1287" t="n">
+        <v>20.6057</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1288" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1288" t="n">
+        <v>65.2029</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1289" t="n">
+        <v>107.3467</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1289"/>
+  <dimension ref="A1:E1297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24931,6 +24931,158 @@
         <v>107.3467</v>
       </c>
     </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1290" t="n">
+        <v>94.71169999999999</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1291" t="n">
+        <v>102.2586</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1292" t="n">
+        <v>60.7765</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1293" t="n">
+        <v>12.972</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>119.7914</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1295" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>20.4986</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1296" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>64.8266</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="2" t="n">
+        <v>45164</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1297" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1297" t="n">
+        <v>106.9464</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1297"/>
+  <dimension ref="A1:E1305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25083,6 +25083,158 @@
         <v>106.9464</v>
       </c>
     </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1298" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1298" t="n">
+        <v>95.4717</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1299" t="n">
+        <v>103.2434</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1300" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1300" t="n">
+        <v>61.3979</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1301" t="n">
+        <v>13.055</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1302" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1302" t="n">
+        <v>120.7526</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1303" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1303" t="n">
+        <v>20.7471</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1304" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1304" t="n">
+        <v>65.1728</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1305" t="n">
+        <v>107.9752</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1305"/>
+  <dimension ref="A1:E1313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25235,6 +25235,158 @@
         <v>107.9752</v>
       </c>
     </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1306" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1306" t="n">
+        <v>95.70699999999999</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1307" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1307" t="n">
+        <v>103.4765</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1308" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1308" t="n">
+        <v>61.6927</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1309" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>13.1096</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1310" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>120.1506</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>20.6243</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1312" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>65.3379</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1313" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>108.1679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1313"/>
+  <dimension ref="A1:E1321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25387,6 +25387,158 @@
         <v>108.1679</v>
       </c>
     </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1314" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>95.92829999999999</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1315" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>104.4496</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>62.1136</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1317" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>13.1311</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1318" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>120.7641</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1319" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>20.7889</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1320" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>65.6998</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>109.0714</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1321"/>
+  <dimension ref="A1:E1329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25539,6 +25539,158 @@
         <v>109.0714</v>
       </c>
     </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1322" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>96.3344</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1323" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>104.9407</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>62.4729</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>13.1943</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>122.6048</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>20.8769</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>65.9508</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>109.3715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1329"/>
+  <dimension ref="A1:E1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25691,6 +25691,158 @@
         <v>109.3715</v>
       </c>
     </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>96.3411</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>104.6108</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1332" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>62.3423</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>13.2479</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1334" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>122.0931</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1335" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>20.9578</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1336" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>66.1502</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="2" t="n">
+        <v>45171</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1337" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>109.1313</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1337"/>
+  <dimension ref="A1:E1345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25843,6 +25843,158 @@
         <v>109.1313</v>
       </c>
     </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1338" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>96.6199</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1339" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>104.4171</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>62.5517</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1341" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>13.2861</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1342" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>121.9247</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1343" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>21.1705</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1344" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>65.9927</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1345" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>109.2614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1345"/>
+  <dimension ref="A1:E1353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25995,6 +25995,158 @@
         <v>109.2614</v>
       </c>
     </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1346" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>97.53830000000001</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1347" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>104.9043</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1348" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>62.4343</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1349" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>13.3402</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>123.0738</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1351" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>21.2261</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1352" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>66.3526</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1353" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>109.8652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1353"/>
+  <dimension ref="A1:E1361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26147,6 +26147,158 @@
         <v>109.8652</v>
       </c>
     </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1354" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>97.8439</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1355" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>105.0789</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>62.6494</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1357" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>13.3749</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1358" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>122.8332</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1359" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>21.2718</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1360" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>66.2002</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1361" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>109.974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1361"/>
+  <dimension ref="A1:E1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26299,6 +26299,158 @@
         <v>109.974</v>
       </c>
     </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1362" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>98.1961</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="n">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>105.2776</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1364" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>62.6491</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="n">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>13.3787</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1366" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>122.6567</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1367" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>21.2817</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="n">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1368" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>66.4205</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1369" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>110.0977</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1369"/>
+  <dimension ref="A1:E1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26451,6 +26451,158 @@
         <v>110.0977</v>
       </c>
     </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>97.9241</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>104.8872</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1372" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>62.74</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>13.3135</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="n">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>122.1701</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1375" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>21.0825</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="n">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1376" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>66.6604</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="2" t="n">
+        <v>45178</v>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>109.9159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1377"/>
+  <dimension ref="A1:E1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26603,6 +26603,158 @@
         <v>109.9159</v>
       </c>
     </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1378" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>96.50830000000001</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>103.5332</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>62.1224</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="n">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>13.1975</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1382" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>120.4906</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1383" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>20.6971</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1384" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>65.68770000000001</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1385" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>108.2296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1385"/>
+  <dimension ref="A1:E1393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26755,6 +26755,158 @@
         <v>108.2296</v>
       </c>
     </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1386" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>94.70350000000001</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>101.5646</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>60.847</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1389" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>12.9522</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1390" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>118.654</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1391" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>20.4596</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1392" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>64.58669999999999</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="1" t="n">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1393" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>106.2175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1393"/>
+  <dimension ref="A1:E1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26907,6 +26907,158 @@
         <v>106.2175</v>
       </c>
     </row>
+    <row r="1394">
+      <c r="A1394" s="1" t="n">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1394" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>95.9794</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="1" t="n">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1395" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>103.1066</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="1" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>61.5132</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1397" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>13.1735</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1" t="n">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1398" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>119.6479</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1399" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>20.8424</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1400" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>65.1857</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1401" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>107.4677</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1401"/>
+  <dimension ref="A1:E1409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27059,6 +27059,158 @@
         <v>107.4677</v>
       </c>
     </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1402" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>96.1609</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1403" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>103.2289</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="1" t="n">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1404" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>61.9372</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>13.1931</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1406" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>120.105</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="1" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1407" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>20.7252</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="1" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1408" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>65.3622</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1409" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>107.6348</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1409"/>
+  <dimension ref="A1:E1417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27211,6 +27211,158 @@
         <v>107.6348</v>
       </c>
     </row>
+    <row r="1410">
+      <c r="A1410" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1410" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>96.63379999999999</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>103.0358</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>62.4931</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="1" t="n">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>13.2672</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="1" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>119.9709</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="1" t="n">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1415" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>20.7289</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="1" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1416" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>65.51439999999999</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="2" t="n">
+        <v>45185</v>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>107.9104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1417"/>
+  <dimension ref="A1:E1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27363,6 +27363,158 @@
         <v>107.9104</v>
       </c>
     </row>
+    <row r="1418">
+      <c r="A1418" s="1" t="n">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>96.6472</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="1" t="n">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>103.0945</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>62.2891</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="1" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>13.2387</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="1" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>119.7942</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="1" t="n">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1423" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>20.6825</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="1" t="n">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1424" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>65.5235</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="1" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>107.8291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1425"/>
+  <dimension ref="A1:E1433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27515,6 +27515,158 @@
         <v>107.8291</v>
       </c>
     </row>
+    <row r="1426">
+      <c r="A1426" s="1" t="n">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1426" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>96.2236</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="1" t="n">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1427" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>102.9211</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="1" t="n">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1428" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>61.8814</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="1" t="n">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1429" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1429" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>13.1695</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="1" t="n">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1430" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1430" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>119.1248</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="1" t="n">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1431" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1431" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>20.5032</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="1" t="n">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1432" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1432" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>65.16119999999999</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="1" t="n">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C1433" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>107.3684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1433"/>
+  <dimension ref="A1:E1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27667,6 +27667,158 @@
         <v>107.3684</v>
       </c>
     </row>
+    <row r="1434">
+      <c r="A1434" s="1" t="n">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>96.6172</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="1" t="n">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1435" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>103.3699</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="1" t="n">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1436" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1436" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>62.3374</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="1" t="n">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1437" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1437" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>13.2097</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="1" t="n">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1438" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1438" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>119.8247</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="1" t="n">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1439" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1439" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>20.4936</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="1" t="n">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1440" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1440" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>65.3702</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="1" t="n">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C1441" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1441" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>107.6755</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1441"/>
+  <dimension ref="A1:E1449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27819,6 +27819,158 @@
         <v>107.6755</v>
       </c>
     </row>
+    <row r="1442">
+      <c r="A1442" s="1" t="n">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1442" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1442" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>96.0762</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="1" t="n">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1443" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>102.3606</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="1" t="n">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1444" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1444" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>61.5176</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="1" t="n">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1445" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1445" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>13.1335</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="1" t="n">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1446" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1446" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>119.1153</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="1" t="n">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1447" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1447" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>20.3026</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="1" t="n">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1448" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1448" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>64.7676</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="1" t="n">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="C1449" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>105.9041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1449"/>
+  <dimension ref="A1:E1457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27971,6 +27971,158 @@
         <v>105.9041</v>
       </c>
     </row>
+    <row r="1450">
+      <c r="A1450" s="1" t="n">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1450" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1450" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>96.0419</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="1" t="n">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1451" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1451" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>102.2485</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="1" t="n">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1452" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1452" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>61.7069</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="1" t="n">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1453" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1453" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>13.1414</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="1" t="n">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1454" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>118.0163</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="1" t="n">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1455" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1455" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>20.1786</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="1" t="n">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1456" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1456" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>65.0514</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="1" t="n">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="C1457" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>106.0065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1457"/>
+  <dimension ref="A1:E1465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28123,6 +28123,158 @@
         <v>106.0065</v>
       </c>
     </row>
+    <row r="1458">
+      <c r="A1458" s="1" t="n">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1458" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>96.1456</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="1" t="n">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1459" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1459" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>102.2453</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="1" t="n">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1460" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1460" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>61.7062</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="1" t="n">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1461" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1461" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>13.1394</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="1" t="n">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1462" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1462" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>117.9226</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="1" t="n">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1463" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1463" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>20.2305</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="1" t="n">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1464" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1464" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>64.7881</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="1" t="n">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C1465" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1465" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>105.6661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1465"/>
+  <dimension ref="A1:E1473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28275,6 +28275,158 @@
         <v>105.6661</v>
       </c>
     </row>
+    <row r="1466">
+      <c r="A1466" s="1" t="n">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1466" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1466" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>96.23779999999999</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="1" t="n">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1467" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1467" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>101.9888</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="1" t="n">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1468" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1468" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>61.7269</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="1" t="n">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1469" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1469" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>13.1504</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="1" t="n">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1470" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>117.3909</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="1" t="n">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1471" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1471" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>20.3042</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="1" t="n">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1472" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1472" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>64.6412</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="1" t="n">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C1473" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1473" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>105.4776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1481"/>
+  <dimension ref="A1:E1489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28579,6 +28579,158 @@
         <v>105.2689</v>
       </c>
     </row>
+    <row r="1482">
+      <c r="A1482" s="1" t="n">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1482" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1482" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>97.0018</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="1" t="n">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1483" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1483" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>102.0979</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="1" t="n">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1484" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>61.858</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="1" t="n">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1485" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1485" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>13.2753</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="1" t="n">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1486" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>117.6632</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="1" t="n">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1487" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1487" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>20.0928</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="1" t="n">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1488" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1488" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>64.88849999999999</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="1" t="n">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C1489" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>105.5744</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1489"/>
+  <dimension ref="A1:E1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28731,6 +28731,158 @@
         <v>105.5744</v>
       </c>
     </row>
+    <row r="1490">
+      <c r="A1490" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1490" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>97.4147</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="1" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>103.1631</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="1" t="n">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1492" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>62.9104</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="1" t="n">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>13.3587</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="1" t="n">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>118.8265</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="1" t="n">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1495" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>20.398</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="1" t="n">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1496" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>65.1865</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="1" t="n">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>107.0844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1497"/>
+  <dimension ref="A1:E1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28883,6 +28883,158 @@
         <v>107.0844</v>
       </c>
     </row>
+    <row r="1498">
+      <c r="A1498" s="1" t="n">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>98.4785</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="1" t="n">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1499" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>103.868</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="1" t="n">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>63.5974</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="1" t="n">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>13.4955</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>120.2127</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="1" t="n">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1503" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>20.7555</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="1" t="n">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1504" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>65.77509999999999</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="1" t="n">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>108.0282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1505"/>
+  <dimension ref="A1:E1513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29035,6 +29035,158 @@
         <v>108.0282</v>
       </c>
     </row>
+    <row r="1506">
+      <c r="A1506" s="1" t="n">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1506" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>99.2677</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="1" t="n">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1507" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1507" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>104.0621</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="1" t="n">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1508" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1508" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>62.6975</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="1" t="n">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1509" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1509" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>13.5556</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="1" t="n">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1510" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1510" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>120.3323</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="1" t="n">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1511" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1511" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>20.7521</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="1" t="n">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1512" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1512" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>66.2403</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="1" t="n">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="C1513" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1513" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>107.8997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1513"/>
+  <dimension ref="A1:E1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29187,6 +29187,158 @@
         <v>107.8997</v>
       </c>
     </row>
+    <row r="1514">
+      <c r="A1514" s="1" t="n">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1514" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1514" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>99.4555</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="1" t="n">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1515" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>104.3024</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="1" t="n">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1516" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1516" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>62.8658</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="1" t="n">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1517" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1517" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>13.5779</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="1" t="n">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1518" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1518" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>120.1422</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="1" t="n">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1519" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1519" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>20.8393</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="1" t="n">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1520" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1520" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>66.6413</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="1" t="n">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="C1521" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1521" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>108.2568</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1521"/>
+  <dimension ref="A1:E1529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29339,6 +29339,158 @@
         <v>108.2568</v>
       </c>
     </row>
+    <row r="1522">
+      <c r="A1522" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1522" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1522" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>99.67619999999999</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="1" t="n">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1523" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1523" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>104.7877</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="1" t="n">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1524" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1524" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>63.5137</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="1" t="n">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1525" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1525" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>13.6183</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="1" t="n">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1526" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1526" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>120.7577</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="1" t="n">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1527" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1527" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>20.9145</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="1" t="n">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1528" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1528" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>66.9867</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="1" t="n">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C1529" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>108.5916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1529"/>
+  <dimension ref="A1:E1537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29491,6 +29491,158 @@
         <v>108.5916</v>
       </c>
     </row>
+    <row r="1530">
+      <c r="A1530" s="1" t="n">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1530" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1530" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>100.4911</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1531" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1531" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>106.01</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="1" t="n">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1532" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1532" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>63.9927</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="1" t="n">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1533" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1533" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>13.7373</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="1" t="n">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1534" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1534" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>122.1972</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="1" t="n">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1535" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1535" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>21.0479</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="1" t="n">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1536" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1536" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>67.6161</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="n">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="2" t="n">
+        <v>45206</v>
+      </c>
+      <c r="C1537" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1537" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>110.0669</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1537"/>
+  <dimension ref="A1:E1545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29643,6 +29643,158 @@
         <v>110.0669</v>
       </c>
     </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="n">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1538" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>101.3598</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="n">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1539" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>107.0322</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="n">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1540" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>64.3635</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="n">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1541" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>13.8926</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="n">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>123.5373</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="n">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1543" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1543" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>21.1859</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="n">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1544" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1544" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>68.20059999999999</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="n">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C1545" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>111.2988</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1545"/>
+  <dimension ref="A1:E1553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29795,6 +29795,158 @@
         <v>111.2988</v>
       </c>
     </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="n">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1546" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>99.9349</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="n">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1547" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>105.6864</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="n">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1548" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>64.06829999999999</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="n">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1549" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>13.6821</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="n">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1550" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>122.0205</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="n">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1551" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>20.9498</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="n">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1552" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1552" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>67.2736</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="n">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C1553" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>110.5352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1553"/>
+  <dimension ref="A1:E1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29947,6 +29947,158 @@
         <v>110.5352</v>
       </c>
     </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="n">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1554" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>99.9808</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="n">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1555" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>105.9544</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="n">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1556" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>64.1977</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="n">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1557" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>13.6982</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="n">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1558" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>122.5465</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="n">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1559" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1559" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>20.9511</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="n">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1560" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1560" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>67.2818</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="n">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="C1561" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>110.7452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1561"/>
+  <dimension ref="A1:E1569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30099,6 +30099,158 @@
         <v>110.7452</v>
       </c>
     </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1562" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>97.2865</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="n">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1563" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>102.52</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="n">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1564" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>61.5143</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="n">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1565" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>13.2893</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1566" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1566" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>118.1155</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1567" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1567" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>20.3963</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1568" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1568" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>65.05719999999999</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>107.7728</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1569"/>
+  <dimension ref="A1:E1585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30104,7 +30104,7 @@
         <v>1560</v>
       </c>
       <c r="B1562" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1562" t="inlineStr">
         <is>
@@ -30115,7 +30115,7 @@
         <v>1</v>
       </c>
       <c r="E1562" t="n">
-        <v>97.2865</v>
+        <v>96.9948</v>
       </c>
     </row>
     <row r="1563">
@@ -30123,7 +30123,7 @@
         <v>1561</v>
       </c>
       <c r="B1563" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1563" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>1</v>
       </c>
       <c r="E1563" t="n">
-        <v>102.52</v>
+        <v>103.035</v>
       </c>
     </row>
     <row r="1564">
@@ -30142,7 +30142,7 @@
         <v>1562</v>
       </c>
       <c r="B1564" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1564" t="inlineStr">
         <is>
@@ -30153,7 +30153,7 @@
         <v>1</v>
       </c>
       <c r="E1564" t="n">
-        <v>61.5143</v>
+        <v>62.2998</v>
       </c>
     </row>
     <row r="1565">
@@ -30161,7 +30161,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1565" t="inlineStr">
         <is>
@@ -30172,7 +30172,7 @@
         <v>1</v>
       </c>
       <c r="E1565" t="n">
-        <v>13.2893</v>
+        <v>13.284</v>
       </c>
     </row>
     <row r="1566">
@@ -30180,7 +30180,7 @@
         <v>1564</v>
       </c>
       <c r="B1566" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1566" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>1</v>
       </c>
       <c r="E1566" t="n">
-        <v>118.1155</v>
+        <v>119.42</v>
       </c>
     </row>
     <row r="1567">
@@ -30199,7 +30199,7 @@
         <v>1565</v>
       </c>
       <c r="B1567" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1567" t="inlineStr">
         <is>
@@ -30210,7 +30210,7 @@
         <v>100</v>
       </c>
       <c r="E1567" t="n">
-        <v>20.3963</v>
+        <v>20.3437</v>
       </c>
     </row>
     <row r="1568">
@@ -30218,7 +30218,7 @@
         <v>1566</v>
       </c>
       <c r="B1568" s="2" t="n">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="C1568" t="inlineStr">
         <is>
@@ -30229,7 +30229,7 @@
         <v>100</v>
       </c>
       <c r="E1568" t="n">
-        <v>65.05719999999999</v>
+        <v>65.0361</v>
       </c>
     </row>
     <row r="1569">
@@ -30237,17 +30237,321 @@
         <v>1567</v>
       </c>
       <c r="B1569" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="C1569" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1569" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>107.76</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1570" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1570" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>97.3075</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1571" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1571" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>102.5523</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1572" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1572" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>61.4691</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1573" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1573" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>13.3026</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1574" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1574" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>118.8514</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1575" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1575" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>20.4522</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1576" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1576" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>64.9453</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="2" t="n">
+        <v>45213</v>
+      </c>
+      <c r="C1577" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1577" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>107.3323</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="n">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="C1569" t="inlineStr">
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1578" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>97.2865</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1579" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1579" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>102.52</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1580" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1580" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>61.5143</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1581" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1581" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>13.2893</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1582" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1582" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>118.1155</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1583" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1583" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>20.3963</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1584" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1584" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>65.05719999999999</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="n">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="C1585" t="inlineStr">
         <is>
           <t>Swiss_Franc</t>
         </is>
       </c>
-      <c r="D1569" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1569" t="n">
+      <c r="D1585" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1585" t="n">
         <v>107.7728</v>
       </c>
     </row>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1585"/>
+  <dimension ref="A1:E1593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30555,6 +30555,158 @@
         <v>107.7728</v>
       </c>
     </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="n">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1586" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1586" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>97.3458</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="n">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1587" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>102.7527</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="n">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1588" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>61.8633</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1589" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1589" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>13.2855</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1590" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>118.6548</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1591" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1591" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>20.4233</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1592" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1592" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>65.0925</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="C1593" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1593" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>107.8385</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1593"/>
+  <dimension ref="A1:E1601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30707,6 +30707,158 @@
         <v>107.8385</v>
       </c>
     </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="n">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1594" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1594" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>97.3724</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="n">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1595" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1595" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>102.9059</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="n">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1596" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1596" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>62.1139</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="n">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1597" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1597" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>13.2881</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="n">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1598" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1598" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>118.6191</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="n">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1599" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1599" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>20.4084</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="n">
+        <v>1598</v>
+      </c>
+      <c r="B1600" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1600" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1600" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>65.0016</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="n">
+        <v>1599</v>
+      </c>
+      <c r="B1601" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="C1601" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1601" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>108.324</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1601"/>
+  <dimension ref="A1:E1609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30859,6 +30859,158 @@
         <v>108.324</v>
       </c>
     </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="B1602" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1602" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1602" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>97.3074</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="n">
+        <v>1601</v>
+      </c>
+      <c r="B1603" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1603" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1603" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>102.6255</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="1" t="n">
+        <v>1602</v>
+      </c>
+      <c r="B1604" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1604" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1604" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>61.3329</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="1" t="n">
+        <v>1603</v>
+      </c>
+      <c r="B1605" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1605" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1605" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>13.2533</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="1" t="n">
+        <v>1604</v>
+      </c>
+      <c r="B1606" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1606" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1606" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>118.1896</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="1" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B1607" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1607" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1607" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>20.3576</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="1" t="n">
+        <v>1606</v>
+      </c>
+      <c r="B1608" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1608" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1608" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>64.9756</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="1" t="n">
+        <v>1607</v>
+      </c>
+      <c r="B1609" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="C1609" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1609" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>108.1915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1609"/>
+  <dimension ref="A1:E1617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31011,6 +31011,158 @@
         <v>108.1915</v>
       </c>
     </row>
+    <row r="1610">
+      <c r="A1610" s="1" t="n">
+        <v>1608</v>
+      </c>
+      <c r="B1610" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1610" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1610" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>95.9053</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="1" t="n">
+        <v>1609</v>
+      </c>
+      <c r="B1611" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1611" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1611" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>101.4257</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="1" t="n">
+        <v>1610</v>
+      </c>
+      <c r="B1612" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1612" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1612" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>60.5738</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="1" t="n">
+        <v>1611</v>
+      </c>
+      <c r="B1613" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1613" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1613" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>13.0688</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="1" t="n">
+        <v>1612</v>
+      </c>
+      <c r="B1614" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>116.4578</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="1" t="n">
+        <v>1613</v>
+      </c>
+      <c r="B1615" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1615" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1615" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>20.0053</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="1" t="n">
+        <v>1614</v>
+      </c>
+      <c r="B1616" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1616" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1616" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>64.0009</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="1" t="n">
+        <v>1615</v>
+      </c>
+      <c r="B1617" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="C1617" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1617" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>107.5895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1617"/>
+  <dimension ref="A1:E1625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31163,6 +31163,158 @@
         <v>107.5895</v>
       </c>
     </row>
+    <row r="1618">
+      <c r="A1618" s="1" t="n">
+        <v>1616</v>
+      </c>
+      <c r="B1618" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1618" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1618" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>94.7081</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="1" t="n">
+        <v>1617</v>
+      </c>
+      <c r="B1619" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1619" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1619" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>100.303</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="1" t="n">
+        <v>1618</v>
+      </c>
+      <c r="B1620" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1620" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1620" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>59.7703</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="1" t="n">
+        <v>1619</v>
+      </c>
+      <c r="B1621" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1621" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1621" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>12.9219</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="1" t="n">
+        <v>1620</v>
+      </c>
+      <c r="B1622" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1622" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1622" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>115.0703</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="1" t="n">
+        <v>1621</v>
+      </c>
+      <c r="B1623" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1623" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>19.7696</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="1" t="n">
+        <v>1622</v>
+      </c>
+      <c r="B1624" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1624" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1624" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>63.1682</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="1" t="n">
+        <v>1623</v>
+      </c>
+      <c r="B1625" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="C1625" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1625" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>106.1036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1633"/>
+  <dimension ref="A1:E1641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31467,6 +31467,158 @@
         <v>103.603</v>
       </c>
     </row>
+    <row r="1634">
+      <c r="A1634" s="1" t="n">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1634" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>93.1507</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="1" t="n">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1635" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1635" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>98.65430000000001</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="1" t="n">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1636" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1636" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>59.486</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="1" t="n">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1637" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>12.7084</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="1" t="n">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1638" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1638" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>113.4389</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="1" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1639" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1639" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>19.5752</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="1" t="n">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1640" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1640" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>62.1336</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="1" t="n">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="C1641" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1641" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>103.1912</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1641"/>
+  <dimension ref="A1:E1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31619,6 +31619,158 @@
         <v>103.1912</v>
       </c>
     </row>
+    <row r="1642">
+      <c r="A1642" s="1" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1642" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1642" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>93.5616</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="1" t="n">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1643" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1643" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>98.7376</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="1" t="n">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1644" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1644" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>58.738</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="1" t="n">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1645" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1645" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>12.7507</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="1" t="n">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1646" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1646" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>113.6212</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="1" t="n">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1647" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1647" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>19.6616</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="1" t="n">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1648" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>62.3038</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="1" t="n">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1649" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>104.0845</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1649"/>
+  <dimension ref="A1:E1657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31771,6 +31771,158 @@
         <v>104.0845</v>
       </c>
     </row>
+    <row r="1650">
+      <c r="A1650" s="1" t="n">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1650" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>93.2174</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="1" t="n">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1651" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>98.35039999999999</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="1" t="n">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1652" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>59.1464</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="1" t="n">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1653" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>12.7122</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="1" t="n">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1654" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>112.9888</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="1" t="n">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1655" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>19.572</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="1" t="n">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1656" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1656" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>62.0704</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="1" t="n">
+        <v>1655</v>
+      </c>
+      <c r="B1657" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="C1657" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1657" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>103.644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1657"/>
+  <dimension ref="A1:E1665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31923,6 +31923,158 @@
         <v>103.644</v>
       </c>
     </row>
+    <row r="1658">
+      <c r="A1658" s="1" t="n">
+        <v>1656</v>
+      </c>
+      <c r="B1658" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1658" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1658" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>93.2435</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="1" t="n">
+        <v>1657</v>
+      </c>
+      <c r="B1659" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1659" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>98.6164</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="1" t="n">
+        <v>1658</v>
+      </c>
+      <c r="B1660" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1660" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1660" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>59.2376</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="1" t="n">
+        <v>1659</v>
+      </c>
+      <c r="B1661" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1661" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1661" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>12.7071</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="1" t="n">
+        <v>1660</v>
+      </c>
+      <c r="B1662" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1662" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1662" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>113.2069</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="1" t="n">
+        <v>1661</v>
+      </c>
+      <c r="B1663" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1663" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1663" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>19.8264</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="1" t="n">
+        <v>1662</v>
+      </c>
+      <c r="B1664" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1664" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1664" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>62.2453</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="1" t="n">
+        <v>1663</v>
+      </c>
+      <c r="B1665" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="C1665" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>104.6034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1665"/>
+  <dimension ref="A1:E1673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32075,6 +32075,158 @@
         <v>104.6034</v>
       </c>
     </row>
+    <row r="1666">
+      <c r="A1666" s="1" t="n">
+        <v>1664</v>
+      </c>
+      <c r="B1666" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1666" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1666" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>92.0226</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="1" t="n">
+        <v>1665</v>
+      </c>
+      <c r="B1667" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1667" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1667" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>97.9345</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="1" t="n">
+        <v>1666</v>
+      </c>
+      <c r="B1668" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1668" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1668" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>58.3975</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="1" t="n">
+        <v>1667</v>
+      </c>
+      <c r="B1669" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1669" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1669" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>12.5339</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="1" t="n">
+        <v>1668</v>
+      </c>
+      <c r="B1670" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1670" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1670" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>111.8627</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="1" t="n">
+        <v>1669</v>
+      </c>
+      <c r="B1671" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1671" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1671" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>19.5017</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="1" t="n">
+        <v>1670</v>
+      </c>
+      <c r="B1672" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1672" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1672" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>61.5742</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="1" t="n">
+        <v>1671</v>
+      </c>
+      <c r="B1673" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="C1673" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1673" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>103.095</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1673"/>
+  <dimension ref="A1:E1681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32227,6 +32227,158 @@
         <v>103.095</v>
       </c>
     </row>
+    <row r="1674">
+      <c r="A1674" s="1" t="n">
+        <v>1672</v>
+      </c>
+      <c r="B1674" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1674" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1674" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>93.2801</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="1" t="n">
+        <v>1673</v>
+      </c>
+      <c r="B1675" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1675" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1675" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>98.4365</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="1" t="n">
+        <v>1674</v>
+      </c>
+      <c r="B1676" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1676" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1676" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>59.065</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="1" t="n">
+        <v>1675</v>
+      </c>
+      <c r="B1677" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1677" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1677" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>12.7052</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="1" t="n">
+        <v>1676</v>
+      </c>
+      <c r="B1678" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1678" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1678" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>113.1861</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="1" t="n">
+        <v>1677</v>
+      </c>
+      <c r="B1679" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1679" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1679" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>19.8608</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="1" t="n">
+        <v>1678</v>
+      </c>
+      <c r="B1680" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1680" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1680" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>61.6524</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="1" t="n">
+        <v>1679</v>
+      </c>
+      <c r="B1681" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="C1681" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1681" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>104.6328</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1681"/>
+  <dimension ref="A1:E1689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32379,6 +32379,158 @@
         <v>104.6328</v>
       </c>
     </row>
+    <row r="1682">
+      <c r="A1682" s="1" t="n">
+        <v>1680</v>
+      </c>
+      <c r="B1682" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1682" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1682" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>93.173</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="1" t="n">
+        <v>1681</v>
+      </c>
+      <c r="B1683" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1683" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1683" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>98.9995</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="1" t="n">
+        <v>1682</v>
+      </c>
+      <c r="B1684" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1684" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1684" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>59.8543</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="1" t="n">
+        <v>1683</v>
+      </c>
+      <c r="B1685" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1685" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1685" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>12.7042</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="1" t="n">
+        <v>1684</v>
+      </c>
+      <c r="B1686" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1686" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>112.9816</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="1" t="n">
+        <v>1685</v>
+      </c>
+      <c r="B1687" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1687" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1687" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>19.8202</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="1" t="n">
+        <v>1686</v>
+      </c>
+      <c r="B1688" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1688" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1688" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>61.909</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="1" t="n">
+        <v>1687</v>
+      </c>
+      <c r="B1689" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="C1689" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1689" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>104.1039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1689"/>
+  <dimension ref="A1:E1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32531,6 +32531,158 @@
         <v>104.1039</v>
       </c>
     </row>
+    <row r="1690">
+      <c r="A1690" s="1" t="n">
+        <v>1688</v>
+      </c>
+      <c r="B1690" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1690" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1690" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>93.0351</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="1" t="n">
+        <v>1689</v>
+      </c>
+      <c r="B1691" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1691" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1691" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>99.0111</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="1" t="n">
+        <v>1690</v>
+      </c>
+      <c r="B1692" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1692" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1692" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>59.8495</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="1" t="n">
+        <v>1691</v>
+      </c>
+      <c r="B1693" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1693" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>12.6911</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="1" t="n">
+        <v>1692</v>
+      </c>
+      <c r="B1694" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1694" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>113.2516</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="1" t="n">
+        <v>1693</v>
+      </c>
+      <c r="B1695" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1695" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>19.8738</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="1" t="n">
+        <v>1694</v>
+      </c>
+      <c r="B1696" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1696" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1696" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>61.8173</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="1" t="n">
+        <v>1695</v>
+      </c>
+      <c r="B1697" s="2" t="n">
+        <v>45234</v>
+      </c>
+      <c r="C1697" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1697" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>103.4183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1697"/>
+  <dimension ref="A1:E1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32683,6 +32683,158 @@
         <v>103.4183</v>
       </c>
     </row>
+    <row r="1698">
+      <c r="A1698" s="1" t="n">
+        <v>1696</v>
+      </c>
+      <c r="B1698" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1698" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>92.4151</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="1" t="n">
+        <v>1697</v>
+      </c>
+      <c r="B1699" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1699" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1699" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>98.7863</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="1" t="n">
+        <v>1698</v>
+      </c>
+      <c r="B1700" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1700" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1700" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>59.5061</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="1" t="n">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1701" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1701" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>12.6656</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="1" t="n">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1702" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1702" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>114.567</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="1" t="n">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1703" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1703" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>19.9834</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="1" t="n">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1704" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1704" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>61.5854</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="1" t="n">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="C1705" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1705" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>102.331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1705"/>
+  <dimension ref="A1:E1713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32835,6 +32835,158 @@
         <v>102.331</v>
       </c>
     </row>
+    <row r="1706">
+      <c r="A1706" s="1" t="n">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1706" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1706" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>92.1973</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="1" t="n">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1707" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1707" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>98.44029999999999</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="1" t="n">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1708" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1708" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>59.3751</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="1" t="n">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1709" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>12.663</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="1" t="n">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1710" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1710" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>113.4488</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="1" t="n">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1711" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1711" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>19.8491</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="1" t="n">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1712" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1712" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>61.2159</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="1" t="n">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="C1713" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1713" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>102.2256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1713"/>
+  <dimension ref="A1:E1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32987,6 +32987,158 @@
         <v>102.2256</v>
       </c>
     </row>
+    <row r="1714">
+      <c r="A1714" s="1" t="n">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1714" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1714" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>91.92659999999999</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="1" t="n">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1715" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1715" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>98.4076</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="1" t="n">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1716" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1716" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>58.9801</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="1" t="n">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1717" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1717" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>12.5998</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="1" t="n">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1718" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1718" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>113.0329</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="1" t="n">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1719" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1719" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>19.6934</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="1" t="n">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1720" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1720" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>60.8947</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="1" t="n">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="C1721" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1721" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>101.0627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1721"/>
+  <dimension ref="A1:E1729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33139,6 +33139,158 @@
         <v>101.0627</v>
       </c>
     </row>
+    <row r="1722">
+      <c r="A1722" s="1" t="n">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1722" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>92.0535</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="1" t="n">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1723" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1723" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>98.3155</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="1" t="n">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1724" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1724" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>58.5552</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="1" t="n">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1725" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1725" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>12.5979</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="1" t="n">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1726" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1726" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>113.1061</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="1" t="n">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1727" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1727" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>19.6675</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="1" t="n">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1728" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1728" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>60.8296</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="1" t="n">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="2" t="n">
+        <v>45241</v>
+      </c>
+      <c r="C1729" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1729" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>101.9419</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1729"/>
+  <dimension ref="A1:E1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33291,6 +33291,158 @@
         <v>101.9419</v>
       </c>
     </row>
+    <row r="1730">
+      <c r="A1730" s="1" t="n">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1730" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1730" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>92.1185</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="1" t="n">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1731" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>98.5314</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="1" t="n">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1732" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1732" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>58.5874</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="1" t="n">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1733" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1733" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>12.6122</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="1" t="n">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1734" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1734" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>112.3661</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="1" t="n">
+        <v>1733</v>
+      </c>
+      <c r="B1735" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1735" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1735" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>19.6876</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="1" t="n">
+        <v>1734</v>
+      </c>
+      <c r="B1736" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1736" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1736" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>60.7441</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="1" t="n">
+        <v>1735</v>
+      </c>
+      <c r="B1737" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C1737" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1737" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>101.8559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1737"/>
+  <dimension ref="A1:E1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33443,6 +33443,158 @@
         <v>101.8559</v>
       </c>
     </row>
+    <row r="1738">
+      <c r="A1738" s="1" t="n">
+        <v>1736</v>
+      </c>
+      <c r="B1738" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1738" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1738" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>91.25700000000001</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="1" t="n">
+        <v>1737</v>
+      </c>
+      <c r="B1739" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1739" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1739" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>97.77809999999999</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="1" t="n">
+        <v>1738</v>
+      </c>
+      <c r="B1740" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1740" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1740" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>58.149</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="1" t="n">
+        <v>1739</v>
+      </c>
+      <c r="B1741" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1741" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1741" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>12.4948</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="1" t="n">
+        <v>1740</v>
+      </c>
+      <c r="B1742" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1742" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1742" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>111.8172</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="1" t="n">
+        <v>1741</v>
+      </c>
+      <c r="B1743" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1743" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1743" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>19.5877</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="1" t="n">
+        <v>1742</v>
+      </c>
+      <c r="B1744" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1744" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1744" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>60.1483</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="1" t="n">
+        <v>1743</v>
+      </c>
+      <c r="B1745" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="C1745" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1745" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>101.838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1745"/>
+  <dimension ref="A1:E1753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33595,6 +33595,158 @@
         <v>101.838</v>
       </c>
     </row>
+    <row r="1746">
+      <c r="A1746" s="1" t="n">
+        <v>1744</v>
+      </c>
+      <c r="B1746" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1746" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1746" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>89.45650000000001</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="1" t="n">
+        <v>1745</v>
+      </c>
+      <c r="B1747" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1747" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1747" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>97.13339999999999</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="1" t="n">
+        <v>1746</v>
+      </c>
+      <c r="B1748" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1748" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1748" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>58.1467</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="1" t="n">
+        <v>1747</v>
+      </c>
+      <c r="B1749" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1749" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1749" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>12.3348</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="1" t="n">
+        <v>1748</v>
+      </c>
+      <c r="B1750" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1750" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1750" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>111.4181</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="1" t="n">
+        <v>1749</v>
+      </c>
+      <c r="B1751" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1751" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1751" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>19.294</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="1" t="n">
+        <v>1750</v>
+      </c>
+      <c r="B1752" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1752" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1752" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>59.3843</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="1" t="n">
+        <v>1751</v>
+      </c>
+      <c r="B1753" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="C1753" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1753" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>99.374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1753"/>
+  <dimension ref="A1:E1761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33747,6 +33747,158 @@
         <v>99.374</v>
       </c>
     </row>
+    <row r="1754">
+      <c r="A1754" s="1" t="n">
+        <v>1752</v>
+      </c>
+      <c r="B1754" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1754" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1754" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>88.9466</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="1" t="n">
+        <v>1753</v>
+      </c>
+      <c r="B1755" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1755" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1755" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>96.5921</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="1" t="n">
+        <v>1754</v>
+      </c>
+      <c r="B1756" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1756" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1756" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>57.5573</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="1" t="n">
+        <v>1755</v>
+      </c>
+      <c r="B1757" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1757" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1757" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>12.2479</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="1" t="n">
+        <v>1756</v>
+      </c>
+      <c r="B1758" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1758" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>110.6851</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="1" t="n">
+        <v>1757</v>
+      </c>
+      <c r="B1759" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1759" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1759" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>19.2721</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="1" t="n">
+        <v>1758</v>
+      </c>
+      <c r="B1760" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1760" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1760" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>58.8077</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="1" t="n">
+        <v>1759</v>
+      </c>
+      <c r="B1761" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="C1761" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1761" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>98.59950000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1761"/>
+  <dimension ref="A1:E1769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33899,6 +33899,158 @@
         <v>98.59950000000001</v>
       </c>
     </row>
+    <row r="1762">
+      <c r="A1762" s="1" t="n">
+        <v>1760</v>
+      </c>
+      <c r="B1762" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1762" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1762" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>89.1237</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="1" t="n">
+        <v>1761</v>
+      </c>
+      <c r="B1763" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1763" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>96.7692</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="1" t="n">
+        <v>1762</v>
+      </c>
+      <c r="B1764" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1764" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1764" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>57.6452</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="1" t="n">
+        <v>1763</v>
+      </c>
+      <c r="B1765" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1765" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1765" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>12.3104</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="1" t="n">
+        <v>1764</v>
+      </c>
+      <c r="B1766" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1766" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1766" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>110.9055</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="1" t="n">
+        <v>1765</v>
+      </c>
+      <c r="B1767" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1767" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>19.3097</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="1" t="n">
+        <v>1766</v>
+      </c>
+      <c r="B1768" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1768" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1768" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>59.1477</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="1" t="n">
+        <v>1767</v>
+      </c>
+      <c r="B1769" s="2" t="n">
+        <v>45248</v>
+      </c>
+      <c r="C1769" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1769" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>98.96040000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1769"/>
+  <dimension ref="A1:E1777"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34051,6 +34051,158 @@
         <v>98.96040000000001</v>
       </c>
     </row>
+    <row r="1770">
+      <c r="A1770" s="1" t="n">
+        <v>1768</v>
+      </c>
+      <c r="B1770" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1770" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1770" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>88.4954</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="1" t="n">
+        <v>1769</v>
+      </c>
+      <c r="B1771" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1771" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1771" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>96.6597</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="1" t="n">
+        <v>1770</v>
+      </c>
+      <c r="B1772" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1772" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1772" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>57.9645</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="1" t="n">
+        <v>1771</v>
+      </c>
+      <c r="B1773" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1773" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1773" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>12.323</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="1" t="n">
+        <v>1772</v>
+      </c>
+      <c r="B1774" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1774" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1774" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>110.0263</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="1" t="n">
+        <v>1773</v>
+      </c>
+      <c r="B1775" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1775" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1775" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>19.1222</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="1" t="n">
+        <v>1774</v>
+      </c>
+      <c r="B1776" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1776" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1776" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>59.3929</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="1" t="n">
+        <v>1775</v>
+      </c>
+      <c r="B1777" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="C1777" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1777" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>98.0776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1777"/>
+  <dimension ref="A1:E1785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34203,6 +34203,158 @@
         <v>98.0776</v>
       </c>
     </row>
+    <row r="1778">
+      <c r="A1778" s="1" t="n">
+        <v>1776</v>
+      </c>
+      <c r="B1778" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1778" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>87.87009999999999</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="1" t="n">
+        <v>1777</v>
+      </c>
+      <c r="B1779" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>96.2561</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="1" t="n">
+        <v>1778</v>
+      </c>
+      <c r="B1780" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1780" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>57.7922</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="1" t="n">
+        <v>1779</v>
+      </c>
+      <c r="B1781" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>12.3009</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="1" t="n">
+        <v>1780</v>
+      </c>
+      <c r="B1782" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1782" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>109.7761</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="1" t="n">
+        <v>1781</v>
+      </c>
+      <c r="B1783" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1783" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>18.9965</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="1" t="n">
+        <v>1782</v>
+      </c>
+      <c r="B1784" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1784" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>59.3717</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="1" t="n">
+        <v>1783</v>
+      </c>
+      <c r="B1785" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1785" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>99.3781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1793"/>
+  <dimension ref="A1:E1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34507,6 +34507,158 @@
         <v>99.6888</v>
       </c>
     </row>
+    <row r="1794">
+      <c r="A1794" s="1" t="n">
+        <v>1792</v>
+      </c>
+      <c r="B1794" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1794" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>88.1206</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="1" t="n">
+        <v>1793</v>
+      </c>
+      <c r="B1795" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1795" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1795" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>96.2273</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="1" t="n">
+        <v>1794</v>
+      </c>
+      <c r="B1796" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1796" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1796" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>57.7542</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="1" t="n">
+        <v>1795</v>
+      </c>
+      <c r="B1797" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1797" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>12.3225</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="1" t="n">
+        <v>1796</v>
+      </c>
+      <c r="B1798" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1798" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1798" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>109.7983</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="1" t="n">
+        <v>1797</v>
+      </c>
+      <c r="B1799" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1799" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1799" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>19.2896</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="1" t="n">
+        <v>1798</v>
+      </c>
+      <c r="B1800" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1800" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1800" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>59.4606</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="1" t="n">
+        <v>1799</v>
+      </c>
+      <c r="B1801" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="C1801" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1801" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>99.8081</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1801"/>
+  <dimension ref="A1:E1809"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34659,6 +34659,158 @@
         <v>99.8081</v>
       </c>
     </row>
+    <row r="1802">
+      <c r="A1802" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="B1802" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1802" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1802" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>88.8133</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="1" t="n">
+        <v>1801</v>
+      </c>
+      <c r="B1803" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1803" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1803" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>96.9187</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="1" t="n">
+        <v>1802</v>
+      </c>
+      <c r="B1804" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1804" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1804" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>58.2882</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="1" t="n">
+        <v>1803</v>
+      </c>
+      <c r="B1805" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1805" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1805" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>12.3949</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="1" t="n">
+        <v>1804</v>
+      </c>
+      <c r="B1806" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1806" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1806" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>111.2919</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="1" t="n">
+        <v>1805</v>
+      </c>
+      <c r="B1807" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1807" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1807" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>19.2583</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="1" t="n">
+        <v>1806</v>
+      </c>
+      <c r="B1808" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1808" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1808" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>59.3831</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="1" t="n">
+        <v>1807</v>
+      </c>
+      <c r="B1809" s="2" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C1809" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>100.4335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1809"/>
+  <dimension ref="A1:E1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34811,6 +34811,158 @@
         <v>100.4335</v>
       </c>
     </row>
+    <row r="1810">
+      <c r="A1810" s="1" t="n">
+        <v>1808</v>
+      </c>
+      <c r="B1810" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1810" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>88.7045</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="1" t="n">
+        <v>1809</v>
+      </c>
+      <c r="B1811" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1811" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>97.15940000000001</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="1" t="n">
+        <v>1810</v>
+      </c>
+      <c r="B1812" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1812" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>58.3232</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="1" t="n">
+        <v>1811</v>
+      </c>
+      <c r="B1813" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1813" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>12.3842</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="1" t="n">
+        <v>1812</v>
+      </c>
+      <c r="B1814" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1814" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>111.8386</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="1" t="n">
+        <v>1813</v>
+      </c>
+      <c r="B1815" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1815" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1815" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>19.1549</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="1" t="n">
+        <v>1814</v>
+      </c>
+      <c r="B1816" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1816" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1816" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>59.3421</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="1" t="n">
+        <v>1815</v>
+      </c>
+      <c r="B1817" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="C1817" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>100.629</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1817"/>
+  <dimension ref="A1:E1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34963,6 +34963,158 @@
         <v>100.629</v>
       </c>
     </row>
+    <row r="1818">
+      <c r="A1818" s="1" t="n">
+        <v>1816</v>
+      </c>
+      <c r="B1818" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1818" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1818" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>88.61020000000001</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="1" t="n">
+        <v>1817</v>
+      </c>
+      <c r="B1819" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1819" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>97.0659</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="1" t="n">
+        <v>1818</v>
+      </c>
+      <c r="B1820" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1820" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1820" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>58.6865</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="1" t="n">
+        <v>1819</v>
+      </c>
+      <c r="B1821" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1821" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1821" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>12.3685</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="1" t="n">
+        <v>1820</v>
+      </c>
+      <c r="B1822" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1822" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1822" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>111.7109</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="1" t="n">
+        <v>1821</v>
+      </c>
+      <c r="B1823" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1823" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1823" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>19.2895</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="1" t="n">
+        <v>1822</v>
+      </c>
+      <c r="B1824" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1824" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1824" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>59.8273</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="1" t="n">
+        <v>1823</v>
+      </c>
+      <c r="B1825" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="C1825" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1825" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>100.6934</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1825"/>
+  <dimension ref="A1:E1833"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35115,6 +35115,158 @@
         <v>100.6934</v>
       </c>
     </row>
+    <row r="1826">
+      <c r="A1826" s="1" t="n">
+        <v>1824</v>
+      </c>
+      <c r="B1826" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1826" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>88.8841</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="1" t="n">
+        <v>1825</v>
+      </c>
+      <c r="B1827" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1827" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>97.6503</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="1" t="n">
+        <v>1826</v>
+      </c>
+      <c r="B1828" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1828" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1828" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>59.1079</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="1" t="n">
+        <v>1827</v>
+      </c>
+      <c r="B1829" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1829" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>12.4527</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="1" t="n">
+        <v>1828</v>
+      </c>
+      <c r="B1830" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1830" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1830" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>112.7317</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="1" t="n">
+        <v>1829</v>
+      </c>
+      <c r="B1831" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1831" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1831" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>19.363</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="1" t="n">
+        <v>1830</v>
+      </c>
+      <c r="B1832" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1832" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1832" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>60.523</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="1" t="n">
+        <v>1831</v>
+      </c>
+      <c r="B1833" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="C1833" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>101.3849</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1833"/>
+  <dimension ref="A1:E1841"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35267,6 +35267,158 @@
         <v>101.3849</v>
       </c>
     </row>
+    <row r="1834">
+      <c r="A1834" s="1" t="n">
+        <v>1832</v>
+      </c>
+      <c r="B1834" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1834" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1834" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>88.5819</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="1" t="n">
+        <v>1833</v>
+      </c>
+      <c r="B1835" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1835" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1835" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>96.8827</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="1" t="n">
+        <v>1834</v>
+      </c>
+      <c r="B1836" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1836" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1836" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>58.8892</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="1" t="n">
+        <v>1835</v>
+      </c>
+      <c r="B1837" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1837" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1837" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>12.3927</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="1" t="n">
+        <v>1836</v>
+      </c>
+      <c r="B1838" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1838" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1838" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>112.4724</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="1" t="n">
+        <v>1837</v>
+      </c>
+      <c r="B1839" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1839" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1839" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>19.2964</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="1" t="n">
+        <v>1838</v>
+      </c>
+      <c r="B1840" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1840" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1840" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>60.268</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="1" t="n">
+        <v>1839</v>
+      </c>
+      <c r="B1841" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C1841" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1841" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>101.248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1841"/>
+  <dimension ref="A1:E1849"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35419,6 +35419,158 @@
         <v>101.248</v>
       </c>
     </row>
+    <row r="1842">
+      <c r="A1842" s="1" t="n">
+        <v>1840</v>
+      </c>
+      <c r="B1842" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1842" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1842" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>89.7619</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="1" t="n">
+        <v>1841</v>
+      </c>
+      <c r="B1843" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1843" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1843" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>97.9126</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="1" t="n">
+        <v>1842</v>
+      </c>
+      <c r="B1844" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1844" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1844" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>59.3416</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="1" t="n">
+        <v>1843</v>
+      </c>
+      <c r="B1845" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1845" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1845" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>12.5479</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="1" t="n">
+        <v>1844</v>
+      </c>
+      <c r="B1846" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1846" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1846" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>113.6027</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="1" t="n">
+        <v>1845</v>
+      </c>
+      <c r="B1847" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1847" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1847" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>19.597</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="1" t="n">
+        <v>1846</v>
+      </c>
+      <c r="B1848" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1848" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1848" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>60.7361</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="1" t="n">
+        <v>1847</v>
+      </c>
+      <c r="B1849" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C1849" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1849" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>102.7259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1849"/>
+  <dimension ref="A1:E1857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35571,6 +35571,158 @@
         <v>102.7259</v>
       </c>
     </row>
+    <row r="1850">
+      <c r="A1850" s="1" t="n">
+        <v>1848</v>
+      </c>
+      <c r="B1850" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1850" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1850" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>90.6728</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="1" t="n">
+        <v>1849</v>
+      </c>
+      <c r="B1851" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1851" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1851" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>98.57680000000001</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="1" t="n">
+        <v>1850</v>
+      </c>
+      <c r="B1852" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1852" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1852" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>60.3518</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="1" t="n">
+        <v>1851</v>
+      </c>
+      <c r="B1853" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1853" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1853" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>12.6897</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="1" t="n">
+        <v>1852</v>
+      </c>
+      <c r="B1854" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1854" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1854" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>114.5651</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="1" t="n">
+        <v>1853</v>
+      </c>
+      <c r="B1855" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1855" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1855" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>19.7051</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="1" t="n">
+        <v>1854</v>
+      </c>
+      <c r="B1856" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1856" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1856" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>61.9561</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="1" t="n">
+        <v>1855</v>
+      </c>
+      <c r="B1857" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C1857" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1857" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>103.9349</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1857"/>
+  <dimension ref="A1:E1865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35723,6 +35723,158 @@
         <v>103.9349</v>
       </c>
     </row>
+    <row r="1858">
+      <c r="A1858" s="1" t="n">
+        <v>1856</v>
+      </c>
+      <c r="B1858" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1858" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1858" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>91.5823</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="1" t="n">
+        <v>1857</v>
+      </c>
+      <c r="B1859" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1859" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1859" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>99.134</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" s="1" t="n">
+        <v>1858</v>
+      </c>
+      <c r="B1860" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1860" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1860" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>60.2978</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" s="1" t="n">
+        <v>1859</v>
+      </c>
+      <c r="B1861" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1861" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1861" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>12.8073</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" s="1" t="n">
+        <v>1860</v>
+      </c>
+      <c r="B1862" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1862" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1862" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>115.5036</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" s="1" t="n">
+        <v>1861</v>
+      </c>
+      <c r="B1863" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1863" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1863" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>19.8518</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" s="1" t="n">
+        <v>1862</v>
+      </c>
+      <c r="B1864" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1864" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1864" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>62.2162</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" s="1" t="n">
+        <v>1863</v>
+      </c>
+      <c r="B1865" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C1865" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1865" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>104.8332</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1865"/>
+  <dimension ref="A1:E1873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35875,6 +35875,158 @@
         <v>104.8332</v>
       </c>
     </row>
+    <row r="1866">
+      <c r="A1866" s="1" t="n">
+        <v>1864</v>
+      </c>
+      <c r="B1866" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1866" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1866" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>92.7826</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" s="1" t="n">
+        <v>1865</v>
+      </c>
+      <c r="B1867" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1867" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1867" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>100.1353</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" s="1" t="n">
+        <v>1866</v>
+      </c>
+      <c r="B1868" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1868" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1868" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>61.0602</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" s="1" t="n">
+        <v>1867</v>
+      </c>
+      <c r="B1869" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1869" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>12.9511</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" s="1" t="n">
+        <v>1868</v>
+      </c>
+      <c r="B1870" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1870" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>117.0267</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" s="1" t="n">
+        <v>1869</v>
+      </c>
+      <c r="B1871" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1871" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>20.1242</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" s="1" t="n">
+        <v>1870</v>
+      </c>
+      <c r="B1872" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1872" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>63.0359</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" s="1" t="n">
+        <v>1871</v>
+      </c>
+      <c r="B1873" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1873" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>106.0979</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1873"/>
+  <dimension ref="A1:E1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36027,6 +36027,158 @@
         <v>106.0979</v>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" s="1" t="n">
+        <v>1872</v>
+      </c>
+      <c r="B1874" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1874" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>92.5654</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" s="1" t="n">
+        <v>1873</v>
+      </c>
+      <c r="B1875" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1875" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>99.81310000000001</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" s="1" t="n">
+        <v>1874</v>
+      </c>
+      <c r="B1876" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1876" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>60.4359</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" s="1" t="n">
+        <v>1875</v>
+      </c>
+      <c r="B1877" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1877" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>12.922</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" s="1" t="n">
+        <v>1876</v>
+      </c>
+      <c r="B1878" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1878" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>116.5676</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" s="1" t="n">
+        <v>1877</v>
+      </c>
+      <c r="B1879" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1879" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>20.1466</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" s="1" t="n">
+        <v>1878</v>
+      </c>
+      <c r="B1880" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1880" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>63.401</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" s="1" t="n">
+        <v>1879</v>
+      </c>
+      <c r="B1881" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1881" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>105.995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1881"/>
+  <dimension ref="A1:E1889"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36179,6 +36179,158 @@
         <v>105.995</v>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" s="1" t="n">
+        <v>1880</v>
+      </c>
+      <c r="B1882" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1882" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1882" t="n">
+        <v>91.64019999999999</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883" s="1" t="n">
+        <v>1881</v>
+      </c>
+      <c r="B1883" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1883" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1883" t="n">
+        <v>98.8409</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884" s="1" t="n">
+        <v>1882</v>
+      </c>
+      <c r="B1884" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1884" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1884" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1884" t="n">
+        <v>60.6475</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885" s="1" t="n">
+        <v>1883</v>
+      </c>
+      <c r="B1885" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1885" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1885" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1885" t="n">
+        <v>12.7893</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886" s="1" t="n">
+        <v>1884</v>
+      </c>
+      <c r="B1886" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1886" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1886" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1886" t="n">
+        <v>115.2284</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887" s="1" t="n">
+        <v>1885</v>
+      </c>
+      <c r="B1887" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1887" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1887" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1887" t="n">
+        <v>19.9257</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888" s="1" t="n">
+        <v>1886</v>
+      </c>
+      <c r="B1888" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1888" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1888" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1888" t="n">
+        <v>63.639</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889" s="1" t="n">
+        <v>1887</v>
+      </c>
+      <c r="B1889" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C1889" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1889" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1889" t="n">
+        <v>104.7077</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1889"/>
+  <dimension ref="A1:E1897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36331,6 +36331,158 @@
         <v>104.7077</v>
       </c>
     </row>
+    <row r="1890">
+      <c r="A1890" s="1" t="n">
+        <v>1888</v>
+      </c>
+      <c r="B1890" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1890" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1890" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1890" t="n">
+        <v>90.9846</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891" s="1" t="n">
+        <v>1889</v>
+      </c>
+      <c r="B1891" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1891" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1891" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1891" t="n">
+        <v>98.07689999999999</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892" s="1" t="n">
+        <v>1890</v>
+      </c>
+      <c r="B1892" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1892" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1892" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1892" t="n">
+        <v>59.6404</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893" s="1" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B1893" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1893" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1893" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1893" t="n">
+        <v>12.6503</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894" s="1" t="n">
+        <v>1892</v>
+      </c>
+      <c r="B1894" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1894" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1894" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1894" t="n">
+        <v>114.1584</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895" s="1" t="n">
+        <v>1893</v>
+      </c>
+      <c r="B1895" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1895" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1895" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1895" t="n">
+        <v>19.8826</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896" s="1" t="n">
+        <v>1894</v>
+      </c>
+      <c r="B1896" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1896" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1896" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1896" t="n">
+        <v>62.5324</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897" s="1" t="n">
+        <v>1895</v>
+      </c>
+      <c r="B1897" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C1897" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1897" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1897" t="n">
+        <v>103.5092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1897"/>
+  <dimension ref="A1:E1905"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36483,6 +36483,158 @@
         <v>103.5092</v>
       </c>
     </row>
+    <row r="1898">
+      <c r="A1898" s="1" t="n">
+        <v>1896</v>
+      </c>
+      <c r="B1898" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1898" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1898" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1898" t="n">
+        <v>90.2158</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899" s="1" t="n">
+        <v>1897</v>
+      </c>
+      <c r="B1899" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1899" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1899" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1899" t="n">
+        <v>97.40300000000001</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900" s="1" t="n">
+        <v>1898</v>
+      </c>
+      <c r="B1900" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1900" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1900" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1900" t="n">
+        <v>59.4612</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901" s="1" t="n">
+        <v>1899</v>
+      </c>
+      <c r="B1901" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1901" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1901" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1901" t="n">
+        <v>12.5636</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902" s="1" t="n">
+        <v>1900</v>
+      </c>
+      <c r="B1902" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1902" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1902" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1902" t="n">
+        <v>113.2299</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903" s="1" t="n">
+        <v>1901</v>
+      </c>
+      <c r="B1903" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1903" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1903" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1903" t="n">
+        <v>19.6767</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904" s="1" t="n">
+        <v>1902</v>
+      </c>
+      <c r="B1904" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1904" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1904" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1904" t="n">
+        <v>61.8764</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905" s="1" t="n">
+        <v>1903</v>
+      </c>
+      <c r="B1905" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C1905" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1905" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1905" t="n">
+        <v>102.7632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1905"/>
+  <dimension ref="A1:E1913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36635,6 +36635,158 @@
         <v>102.7632</v>
       </c>
     </row>
+    <row r="1906">
+      <c r="A1906" s="1" t="n">
+        <v>1904</v>
+      </c>
+      <c r="B1906" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1906" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1906" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1906" t="n">
+        <v>89.8926</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907" s="1" t="n">
+        <v>1905</v>
+      </c>
+      <c r="B1907" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1907" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1907" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1907" t="n">
+        <v>96.95</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908" s="1" t="n">
+        <v>1906</v>
+      </c>
+      <c r="B1908" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1908" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1908" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1908" t="n">
+        <v>58.9246</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909" s="1" t="n">
+        <v>1907</v>
+      </c>
+      <c r="B1909" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1909" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1909" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1909" t="n">
+        <v>12.4993</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910" s="1" t="n">
+        <v>1908</v>
+      </c>
+      <c r="B1910" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1910" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1910" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1910" t="n">
+        <v>112.9141</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911" s="1" t="n">
+        <v>1909</v>
+      </c>
+      <c r="B1911" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1911" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1911" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1911" t="n">
+        <v>19.6908</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912" s="1" t="n">
+        <v>1910</v>
+      </c>
+      <c r="B1912" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1912" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1912" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1912" t="n">
+        <v>61.7691</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913" s="1" t="n">
+        <v>1911</v>
+      </c>
+      <c r="B1913" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C1913" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1913" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1913" t="n">
+        <v>102.5937</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1913"/>
+  <dimension ref="A1:E1921"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36787,6 +36787,158 @@
         <v>102.5937</v>
       </c>
     </row>
+    <row r="1914">
+      <c r="A1914" s="1" t="n">
+        <v>1912</v>
+      </c>
+      <c r="B1914" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1914" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1914" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1914" t="n">
+        <v>89.6741</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915" s="1" t="n">
+        <v>1913</v>
+      </c>
+      <c r="B1915" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1915" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1915" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1915" t="n">
+        <v>97.7377</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916" s="1" t="n">
+        <v>1914</v>
+      </c>
+      <c r="B1916" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1916" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1916" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1916" t="n">
+        <v>60.1893</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917" s="1" t="n">
+        <v>1915</v>
+      </c>
+      <c r="B1917" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1917" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1917" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1917" t="n">
+        <v>12.5457</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918" s="1" t="n">
+        <v>1916</v>
+      </c>
+      <c r="B1918" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1918" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1918" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1918" t="n">
+        <v>112.3258</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919" s="1" t="n">
+        <v>1917</v>
+      </c>
+      <c r="B1919" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1919" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1919" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1919" t="n">
+        <v>19.6788</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920" s="1" t="n">
+        <v>1918</v>
+      </c>
+      <c r="B1920" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1920" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1920" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1920" t="n">
+        <v>62.9601</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921" s="1" t="n">
+        <v>1919</v>
+      </c>
+      <c r="B1921" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C1921" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1921" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1921" t="n">
+        <v>102.9317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1921"/>
+  <dimension ref="A1:E1929"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36939,6 +36939,158 @@
         <v>102.9317</v>
       </c>
     </row>
+    <row r="1922">
+      <c r="A1922" s="1" t="n">
+        <v>1920</v>
+      </c>
+      <c r="B1922" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1922" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1922" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1922" t="n">
+        <v>89.6966</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923" s="1" t="n">
+        <v>1921</v>
+      </c>
+      <c r="B1923" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1923" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1923" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1923" t="n">
+        <v>98.4186</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924" s="1" t="n">
+        <v>1922</v>
+      </c>
+      <c r="B1924" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1924" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1924" t="n">
+        <v>60.2492</v>
+      </c>
+    </row>
+    <row r="1925">
+      <c r="A1925" s="1" t="n">
+        <v>1923</v>
+      </c>
+      <c r="B1925" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1925" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1925" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1925" t="n">
+        <v>12.6091</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926" s="1" t="n">
+        <v>1924</v>
+      </c>
+      <c r="B1926" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1926" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1926" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1926" t="n">
+        <v>114.4529</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927" s="1" t="n">
+        <v>1925</v>
+      </c>
+      <c r="B1927" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1927" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1927" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1927" t="n">
+        <v>19.6863</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928" s="1" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B1928" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1928" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1928" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1928" t="n">
+        <v>62.9892</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929" s="1" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B1929" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C1929" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1929" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1929" t="n">
+        <v>103.4921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1929"/>
+  <dimension ref="A1:E1937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37091,6 +37091,158 @@
         <v>103.4921</v>
       </c>
     </row>
+    <row r="1930">
+      <c r="A1930" s="1" t="n">
+        <v>1928</v>
+      </c>
+      <c r="B1930" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1930" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1930" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1930" t="n">
+        <v>90.4162</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931" s="1" t="n">
+        <v>1929</v>
+      </c>
+      <c r="B1931" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1931" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1931" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1931" t="n">
+        <v>98.7578</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932" s="1" t="n">
+        <v>1930</v>
+      </c>
+      <c r="B1932" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1932" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1932" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1932" t="n">
+        <v>60.7054</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933" s="1" t="n">
+        <v>1931</v>
+      </c>
+      <c r="B1933" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1933" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1933" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1933" t="n">
+        <v>12.6578</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934" s="1" t="n">
+        <v>1932</v>
+      </c>
+      <c r="B1934" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1934" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1934" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1934" t="n">
+        <v>114.8195</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935" s="1" t="n">
+        <v>1933</v>
+      </c>
+      <c r="B1935" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1935" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1935" t="n">
+        <v>19.7657</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936" s="1" t="n">
+        <v>1934</v>
+      </c>
+      <c r="B1936" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1936" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1936" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1936" t="n">
+        <v>63.6062</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937" s="1" t="n">
+        <v>1935</v>
+      </c>
+      <c r="B1937" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C1937" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1937" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1937" t="n">
+        <v>104.0822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1937"/>
+  <dimension ref="A1:E1945"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37243,6 +37243,158 @@
         <v>104.0822</v>
       </c>
     </row>
+    <row r="1938">
+      <c r="A1938" s="1" t="n">
+        <v>1936</v>
+      </c>
+      <c r="B1938" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1938" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1938" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1938" t="n">
+        <v>90.087</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939" s="1" t="n">
+        <v>1937</v>
+      </c>
+      <c r="B1939" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1939" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1939" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1939" t="n">
+        <v>98.57640000000001</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940" s="1" t="n">
+        <v>1938</v>
+      </c>
+      <c r="B1940" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1940" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1940" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1940" t="n">
+        <v>60.5745</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941" s="1" t="n">
+        <v>1939</v>
+      </c>
+      <c r="B1941" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1941" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1941" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1941" t="n">
+        <v>12.579</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942" s="1" t="n">
+        <v>1940</v>
+      </c>
+      <c r="B1942" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1942" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1942" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1942" t="n">
+        <v>113.915</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943" s="1" t="n">
+        <v>1941</v>
+      </c>
+      <c r="B1943" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1943" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1943" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1943" t="n">
+        <v>19.6937</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944" s="1" t="n">
+        <v>1942</v>
+      </c>
+      <c r="B1944" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1944" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1944" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1944" t="n">
+        <v>62.774</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945" s="1" t="n">
+        <v>1943</v>
+      </c>
+      <c r="B1945" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C1945" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1945" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1945" t="n">
+        <v>103.9905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1945"/>
+  <dimension ref="A1:E1953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37395,6 +37395,158 @@
         <v>103.9905</v>
       </c>
     </row>
+    <row r="1946">
+      <c r="A1946" s="1" t="n">
+        <v>1944</v>
+      </c>
+      <c r="B1946" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1946" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1946" t="n">
+        <v>90.40560000000001</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947" s="1" t="n">
+        <v>1945</v>
+      </c>
+      <c r="B1947" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1947" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1947" t="n">
+        <v>99.048</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B1948" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1948" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1948" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1948" t="n">
+        <v>61.2498</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B1949" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1949" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1949" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1949" t="n">
+        <v>12.6577</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B1950" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1950" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1950" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1950" t="n">
+        <v>115.1677</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B1951" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1951" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1951" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1951" t="n">
+        <v>19.7392</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B1952" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1952" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1952" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1952" t="n">
+        <v>62.7904</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B1953" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C1953" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1953" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1953" t="n">
+        <v>104.9398</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1961"/>
+  <dimension ref="A1:E1969"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37699,6 +37699,158 @@
         <v>106.3877</v>
       </c>
     </row>
+    <row r="1962">
+      <c r="A1962" s="1" t="n">
+        <v>1960</v>
+      </c>
+      <c r="B1962" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1962" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1962" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1962" t="n">
+        <v>91.9389</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963" s="1" t="n">
+        <v>1961</v>
+      </c>
+      <c r="B1963" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1963" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1963" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1963" t="n">
+        <v>101.2863</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964" s="1" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B1964" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1964" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1964" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1964" t="n">
+        <v>62.353</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965" s="1" t="n">
+        <v>1963</v>
+      </c>
+      <c r="B1965" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1965" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1965" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1965" t="n">
+        <v>12.8598</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966" s="1" t="n">
+        <v>1964</v>
+      </c>
+      <c r="B1966" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1966" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1966" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1966" t="n">
+        <v>116.3579</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967" s="1" t="n">
+        <v>1965</v>
+      </c>
+      <c r="B1967" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1967" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1967" t="n">
+        <v>20.1184</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968" s="1" t="n">
+        <v>1966</v>
+      </c>
+      <c r="B1968" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1968" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1968" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1968" t="n">
+        <v>64.7868</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969" s="1" t="n">
+        <v>1967</v>
+      </c>
+      <c r="B1969" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1969" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1969" t="n">
+        <v>107.4555</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1969"/>
+  <dimension ref="A1:E1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37851,6 +37851,158 @@
         <v>107.4555</v>
       </c>
     </row>
+    <row r="1970">
+      <c r="A1970" s="1" t="n">
+        <v>1968</v>
+      </c>
+      <c r="B1970" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1970" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1970" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1970" t="n">
+        <v>91.96899999999999</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971" s="1" t="n">
+        <v>1969</v>
+      </c>
+      <c r="B1971" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1971" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1971" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1971" t="n">
+        <v>101.5781</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972" s="1" t="n">
+        <v>1970</v>
+      </c>
+      <c r="B1972" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1972" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1972" t="n">
+        <v>62.3734</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973" s="1" t="n">
+        <v>1971</v>
+      </c>
+      <c r="B1973" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1973" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1973" t="n">
+        <v>12.8379</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974" s="1" t="n">
+        <v>1972</v>
+      </c>
+      <c r="B1974" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1974" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1974" t="n">
+        <v>116.396</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975" s="1" t="n">
+        <v>1973</v>
+      </c>
+      <c r="B1975" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1975" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1975" t="n">
+        <v>20.0067</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976" s="1" t="n">
+        <v>1974</v>
+      </c>
+      <c r="B1976" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1976" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1976" t="n">
+        <v>64.65309999999999</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977" s="1" t="n">
+        <v>1975</v>
+      </c>
+      <c r="B1977" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1977" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1977" t="n">
+        <v>107.4906</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1985"/>
+  <dimension ref="A1:E1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38155,6 +38155,158 @@
         <v>107.1843</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" s="1" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B1986" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1986" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1986" t="n">
+        <v>91.7051</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987" s="1" t="n">
+        <v>1985</v>
+      </c>
+      <c r="B1987" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1987" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1987" t="n">
+        <v>101.3451</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988" s="1" t="n">
+        <v>1986</v>
+      </c>
+      <c r="B1988" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1988" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1988" t="n">
+        <v>62.6988</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989" s="1" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B1989" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1989" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1989" t="n">
+        <v>12.8011</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990" s="1" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B1990" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1990" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1990" t="n">
+        <v>116.062</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991" s="1" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B1991" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1991" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>20.1011</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="1" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B1992" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D1992" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>64.2868</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="1" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B1993" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D1993" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1993" t="n">
+        <v>107.6477</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1993"/>
+  <dimension ref="A1:E2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38307,6 +38307,158 @@
         <v>107.6477</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" s="1" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B1994" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D1994" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1994" t="n">
+        <v>90.30410000000001</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" s="1" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B1995" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D1995" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1995" t="n">
+        <v>100.5506</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" s="1" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B1996" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D1996" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1996" t="n">
+        <v>61.7861</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997" s="1" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B1997" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D1997" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>12.6749</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" s="1" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B1998" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D1998" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>115.4899</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" s="1" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B1999" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D1999" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>19.8253</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" s="1" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B2000" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D2000" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>63.7516</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" s="1" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B2001" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D2001" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>108.1486</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/LME/parser_beta/data/cb_curr.xlsx
+++ b/LME/parser_beta/data/cb_curr.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2001"/>
+  <dimension ref="A1:E2009"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38459,6 +38459,158 @@
         <v>108.1486</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2002" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D2002" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>89.6883</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B2003" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="D2003" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>99.1919</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B2004" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>Australian_Dollar</t>
+        </is>
+      </c>
+      <c r="D2004" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>61.3468</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2005" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>China_Yuan</t>
+        </is>
+      </c>
+      <c r="D2005" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>12.5762</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" s="1" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B2006" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>British_Pound</t>
+        </is>
+      </c>
+      <c r="D2006" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>114.532</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" s="1" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B2007" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>Kazakhstan_Tenge</t>
+        </is>
+      </c>
+      <c r="D2007" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>19.7708</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" s="1" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B2008" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2008" t="inlineStr">
+        <is>
+          <t>Japanese_Yen</t>
+        </is>
+      </c>
+      <c r="D2008" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>63.3302</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B2009" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C2009" t="inlineStr">
+        <is>
+          <t>Swiss_Franc</t>
+        </is>
+      </c>
+      <c r="D2009" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>106.7591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
